--- a/biology/Zoologie/Gerard_Baerends/Gerard_Baerends.xlsx
+++ b/biology/Zoologie/Gerard_Baerends/Gerard_Baerends.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pieter Gerardus (Gerard) Baerends (La Haye, 30 mars 1916 - Groningue, 1er septembre 1999) était un éthologue néerlandais.  Il a été l'une des figures dominantes de l'éthologie aux Pays-Bas.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerard Barends a étudié la biologie à l'Université de Leyde et a été l'un des étudiants de Nikolaas Tinbergen. Il se spécialise dans l'étude du comportement des animaux dans leur habitat naturel et cette approche lui a fourni un nouveau cadre théorique pour expliquer le comportement animal.
 À cette époque, l'étude des animaux se faisait en laboratoire, il en résultait forcément que la réponse de ces animaux ne correspondait pas à celle qu'ils auraient eue s'ils avaient été étudiés dans leurs conditions de vie naturelles. Par ses observations et ses expériences de terrain, l'approche de Baerends contournait ce problème.
@@ -543,7 +557,9 @@
           <t>Contributions à  l'éthologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1941 Baerends fut invité par Tinbergen à effectuer une étude du comportement reproductif et de l'orientation chez la guêpe. Du fait de cette approche sur le terrain, Barends, par l'analyse du comportement complexe de la guêpe, en est venu à une théorie voulant que le comportement de l'animal soit structuré de façon hiérarchique.
 Ces études firent apparaître clairement dans quelle mesure le comportement animal, en situation naturelle, diffère de celui des animaux dans des situations de laboratoire.
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fortpflanzungsverhalten und Orientierung der Ammophila campestris. Tijdschrift voor Entomologie (1941), Jg. 84, S. 68-275
 Samen met J.M. Baerends-van Roon: An introduction to the study of cichlid fishes. Behaviour (1950), Suppl. 1, blz. 1-242
